--- a/docs/StructureDefinition-Condition-profile.xlsx
+++ b/docs/StructureDefinition-Condition-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T21:33:06+08:00</t>
+    <t>2022-07-20T22:00:32+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Condition-profile.xlsx
+++ b/docs/StructureDefinition-Condition-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$112</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5037" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -45,13 +45,13 @@
     <t>Title</t>
   </si>
   <si>
-    <t>03-Condition Profile(CISISTAG)</t>
+    <t>05-Condition Profile(CISCTCAE)</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T22:00:32+08:00</t>
+    <t>2022-07-31T21:33:26+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1025,7 +1025,7 @@
     <t>Condition.category.coding.system</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>https://wd.vghtpe.gov.tw#001</t>
   </si>
   <si>
     <t>Condition.category.coding.version</t>
@@ -1035,6 +1035,9 @@
   </si>
   <si>
     <t>Condition.category.coding.display</t>
+  </si>
+  <si>
+    <t>COURSE</t>
   </si>
   <si>
     <t>Condition.category.coding.userSelected</t>
@@ -1143,6 +1146,9 @@
     <t>Condition.code.coding.system</t>
   </si>
   <si>
+    <t>http://terminology.hl7.org/CodeSystem/icd9cm#780.79</t>
+  </si>
+  <si>
     <t>Condition.code.coding.version</t>
   </si>
   <si>
@@ -1152,6 +1158,9 @@
     <t>Condition.code.coding.display</t>
   </si>
   <si>
+    <t>CISFCTA4</t>
+  </si>
+  <si>
     <t>Condition.code.coding.userSelected</t>
   </si>
   <si>
@@ -1203,7 +1212,7 @@
     <t>Condition.bodySite.coding.system</t>
   </si>
   <si>
-    <t>VGH</t>
+    <t>https://www.vghtpe.gov.tw/Index.action</t>
   </si>
   <si>
     <t>Condition.bodySite.coding.version</t>
@@ -1372,89 +1381,6 @@
     <t>FiveWs.author</t>
   </si>
   <si>
-    <t>Condition.recorder.id</t>
-  </si>
-  <si>
-    <t>Condition.recorder.extension</t>
-  </si>
-  <si>
-    <t>Condition.recorder.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Condition.recorder.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Condition.recorder.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Condition.recorder.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>Condition.asserter</t>
   </si>
   <si>
@@ -1538,39 +1464,6 @@
     <t>&lt; 254291000 |Staging and scales|</t>
   </si>
   <si>
-    <t>Condition.stage.summary.id</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.extension</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.id</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.extension</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.system</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.version</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.code</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.display</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.text</t>
-  </si>
-  <si>
     <t>Condition.stage.assessment</t>
   </si>
   <si>
@@ -1587,24 +1480,6 @@
     <t>.self</t>
   </si>
   <si>
-    <t>Condition.stage.assessment.id</t>
-  </si>
-  <si>
-    <t>Condition.stage.assessment.extension</t>
-  </si>
-  <si>
-    <t>Condition.stage.assessment.reference</t>
-  </si>
-  <si>
-    <t>Condition.stage.assessment.type</t>
-  </si>
-  <si>
-    <t>Condition.stage.assessment.identifier</t>
-  </si>
-  <si>
-    <t>Condition.stage.assessment.display</t>
-  </si>
-  <si>
     <t>Condition.stage.type</t>
   </si>
   <si>
@@ -1621,48 +1496,6 @@
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage type"]</t>
-  </si>
-  <si>
-    <t>Condition.stage.type.id</t>
-  </si>
-  <si>
-    <t>Condition.stage.type.extension</t>
-  </si>
-  <si>
-    <t>Condition.stage.type.coding</t>
-  </si>
-  <si>
-    <t>Condition.stage.type.coding.id</t>
-  </si>
-  <si>
-    <t>Condition.stage.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Condition.stage.type.coding.system</t>
-  </si>
-  <si>
-    <t>https://loinc.org/</t>
-  </si>
-  <si>
-    <t>Condition.stage.type.coding.version</t>
-  </si>
-  <si>
-    <t>Condition.stage.type.coding.code</t>
-  </si>
-  <si>
-    <t>21908-9</t>
-  </si>
-  <si>
-    <t>Condition.stage.type.coding.display</t>
-  </si>
-  <si>
-    <t>Stage group.clinical Cancer</t>
-  </si>
-  <si>
-    <t>Condition.stage.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Condition.stage.type.text</t>
   </si>
   <si>
     <t>Condition.evidence</t>
@@ -1719,6 +1552,48 @@
   </si>
   <si>
     <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>Condition.evidence.code.id</t>
+  </si>
+  <si>
+    <t>Condition.evidence.code.extension</t>
+  </si>
+  <si>
+    <t>Condition.evidence.code.coding</t>
+  </si>
+  <si>
+    <t>Condition.evidence.code.coding.id</t>
+  </si>
+  <si>
+    <t>Condition.evidence.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Condition.evidence.code.coding.system</t>
+  </si>
+  <si>
+    <t>https://dctd.cancer.gov/#10025482</t>
+  </si>
+  <si>
+    <t>Condition.evidence.code.coding.version</t>
+  </si>
+  <si>
+    <t>v4.03</t>
+  </si>
+  <si>
+    <t>Condition.evidence.code.coding.code</t>
+  </si>
+  <si>
+    <t>Condition.evidence.code.coding.display</t>
+  </si>
+  <si>
+    <t>MEDCODE</t>
+  </si>
+  <si>
+    <t>Condition.evidence.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Condition.evidence.code.text</t>
   </si>
   <si>
     <t>Condition.evidence.detail</t>
@@ -2065,7 +1940,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO135"/>
+  <dimension ref="A1:AO112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8264,7 +8139,7 @@
         <v>76</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>76</v>
@@ -8338,7 +8213,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8457,7 +8332,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8576,7 +8451,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8602,13 +8477,13 @@
         <v>175</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8637,10 +8512,10 @@
         <v>111</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>76</v>
@@ -8658,7 +8533,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8676,28 +8551,28 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8719,14 +8594,14 @@
         <v>175</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>76</v>
@@ -8751,13 +8626,13 @@
         <v>76</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>76</v>
@@ -8775,7 +8650,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8790,27 +8665,27 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8925,7 +8800,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9042,7 +8917,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9161,7 +9036,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9276,7 +9151,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9393,7 +9268,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9435,7 +9310,7 @@
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>76</v>
@@ -9512,7 +9387,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9629,7 +9504,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9746,7 +9621,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9789,7 +9664,7 @@
         <v>76</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>76</v>
@@ -9863,7 +9738,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9982,7 +9857,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10101,7 +9976,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10127,13 +10002,13 @@
         <v>175</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10159,13 +10034,13 @@
         <v>76</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>76</v>
@@ -10183,7 +10058,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10201,24 +10076,24 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10333,7 +10208,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10450,7 +10325,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10569,7 +10444,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10684,7 +10559,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10801,7 +10676,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10843,7 +10718,7 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>76</v>
@@ -10920,7 +10795,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11037,7 +10912,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11154,7 +11029,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11271,7 +11146,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11390,7 +11265,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11507,13 +11382,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11523,7 +11398,7 @@
         <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>76</v>
@@ -11532,17 +11407,17 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>76</v>
@@ -11591,7 +11466,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>87</v>
@@ -11606,19 +11481,19 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>76</v>
@@ -11626,7 +11501,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11649,16 +11524,16 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11708,7 +11583,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11723,19 +11598,19 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>76</v>
@@ -11743,7 +11618,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11751,7 +11626,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>87</v>
@@ -11766,16 +11641,16 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11825,7 +11700,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11840,19 +11715,19 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>76</v>
@@ -11860,7 +11735,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11883,16 +11758,16 @@
         <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11942,7 +11817,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11951,7 +11826,7 @@
         <v>87</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>99</v>
@@ -11966,10 +11841,10 @@
         <v>76</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>76</v>
@@ -11977,7 +11852,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11985,7 +11860,7 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>87</v>
@@ -12000,13 +11875,13 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12057,7 +11932,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12078,13 +11953,13 @@
         <v>76</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>76</v>
@@ -12092,7 +11967,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12100,7 +11975,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>87</v>
@@ -12115,13 +11990,13 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12172,7 +12047,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12196,10 +12071,10 @@
         <v>76</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>76</v>
@@ -12207,7 +12082,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12227,16 +12102,16 @@
         <v>76</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>435</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>154</v>
+        <v>441</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>155</v>
+        <v>442</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12287,7 +12162,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>156</v>
+        <v>440</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12299,7 +12174,7 @@
         <v>76</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>76</v>
@@ -12308,13 +12183,13 @@
         <v>76</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>157</v>
+        <v>444</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>76</v>
@@ -12322,11 +12197,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12345,17 +12220,15 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>133</v>
+        <v>447</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>134</v>
+        <v>448</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>76</v>
@@ -12392,19 +12265,19 @@
         <v>76</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>163</v>
+        <v>446</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12416,7 +12289,7 @@
         <v>76</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>138</v>
+        <v>450</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>76</v>
@@ -12428,7 +12301,7 @@
         <v>76</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>157</v>
+        <v>451</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>76</v>
@@ -12439,7 +12312,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12447,7 +12320,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>87</v>
@@ -12459,20 +12332,18 @@
         <v>76</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>440</v>
+        <v>154</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>76</v>
@@ -12521,7 +12392,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>443</v>
+        <v>156</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12530,10 +12401,10 @@
         <v>87</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>76</v>
@@ -12545,7 +12416,7 @@
         <v>76</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>76</v>
@@ -12556,18 +12427,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>76</v>
@@ -12576,19 +12447,19 @@
         <v>76</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>446</v>
+        <v>134</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>447</v>
+        <v>159</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>448</v>
+        <v>136</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12614,13 +12485,13 @@
         <v>76</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -12638,19 +12509,19 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>451</v>
+        <v>163</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>76</v>
@@ -12662,7 +12533,7 @@
         <v>76</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>76</v>
@@ -12673,41 +12544,43 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>76</v>
+        <v>455</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>76</v>
       </c>
@@ -12755,19 +12628,19 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>76</v>
@@ -12779,7 +12652,7 @@
         <v>76</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>457</v>
+        <v>130</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>76</v>
@@ -12790,7 +12663,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12810,20 +12683,18 @@
         <v>76</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M92" t="s" s="2">
         <v>461</v>
       </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -12848,13 +12719,13 @@
         <v>76</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>76</v>
@@ -12872,7 +12743,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12881,7 +12752,7 @@
         <v>87</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>99</v>
@@ -12890,13 +12761,13 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>130</v>
+        <v>355</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>76</v>
@@ -12907,7 +12778,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12918,7 +12789,7 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>76</v>
@@ -12927,16 +12798,16 @@
         <v>76</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12987,16 +12858,16 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>76</v>
+        <v>464</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>99</v>
@@ -13008,21 +12879,21 @@
         <v>76</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>466</v>
+        <v>76</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>468</v>
+        <v>76</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13030,13 +12901,13 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>76</v>
@@ -13045,13 +12916,13 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>470</v>
+        <v>175</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13078,13 +12949,13 @@
         <v>76</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>76</v>
+        <v>475</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>76</v>
@@ -13102,19 +12973,19 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>473</v>
+        <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>76</v>
@@ -13126,7 +12997,7 @@
         <v>76</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>76</v>
@@ -13135,9 +13006,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13145,13 +13016,13 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>76</v>
@@ -13160,15 +13031,17 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>89</v>
+        <v>447</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>154</v>
+        <v>478</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>76</v>
@@ -13217,19 +13090,19 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>156</v>
+        <v>477</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>76</v>
+        <v>481</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>76</v>
@@ -13241,7 +13114,7 @@
         <v>76</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>157</v>
+        <v>482</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>76</v>
@@ -13252,18 +13125,18 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>76</v>
@@ -13275,17 +13148,15 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>76</v>
@@ -13334,19 +13205,19 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>76</v>
@@ -13369,11 +13240,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>478</v>
+        <v>132</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13386,26 +13257,24 @@
         <v>76</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>479</v>
+        <v>134</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>480</v>
+        <v>159</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N97" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>76</v>
       </c>
@@ -13453,7 +13322,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>481</v>
+        <v>163</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13477,7 +13346,7 @@
         <v>76</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>76</v>
@@ -13488,39 +13357,43 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>76</v>
+        <v>455</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>76</v>
       </c>
@@ -13544,13 +13417,13 @@
         <v>76</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>486</v>
+        <v>76</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>76</v>
@@ -13568,31 +13441,31 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>487</v>
+        <v>76</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>488</v>
+        <v>76</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>354</v>
+        <v>130</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>76</v>
@@ -13603,7 +13476,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13614,7 +13487,7 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>76</v>
@@ -13623,16 +13496,16 @@
         <v>76</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>154</v>
+        <v>487</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>155</v>
+        <v>488</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13659,13 +13532,13 @@
         <v>76</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>76</v>
+        <v>489</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>76</v>
+        <v>490</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>76</v>
@@ -13683,34 +13556,34 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>156</v>
+        <v>486</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>76</v>
+        <v>491</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>76</v>
+        <v>492</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>157</v>
+        <v>493</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>76</v>
+        <v>494</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>76</v>
@@ -13718,18 +13591,18 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>76</v>
@@ -13741,17 +13614,15 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>76</v>
@@ -13788,31 +13659,31 @@
         <v>76</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>76</v>
@@ -13835,15 +13706,15 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>78</v>
@@ -13855,23 +13726,21 @@
         <v>76</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>76</v>
       </c>
@@ -13907,19 +13776,19 @@
         <v>76</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AC101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD101" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13931,7 +13800,7 @@
         <v>76</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>76</v>
@@ -13940,10 +13809,10 @@
         <v>76</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>76</v>
@@ -13954,7 +13823,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13962,10 +13831,10 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>76</v>
@@ -13974,19 +13843,23 @@
         <v>76</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>89</v>
+        <v>232</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>76</v>
       </c>
@@ -14034,19 +13907,19 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>76</v>
@@ -14055,10 +13928,10 @@
         <v>76</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>76</v>
@@ -14069,18 +13942,18 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>76</v>
@@ -14092,17 +13965,15 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>76</v>
@@ -14139,31 +14010,31 @@
         <v>76</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>76</v>
@@ -14186,18 +14057,18 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>76</v>
@@ -14206,23 +14077,21 @@
         <v>76</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>76</v>
       </c>
@@ -14258,31 +14127,31 @@
         <v>76</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>76</v>
@@ -14291,10 +14160,10 @@
         <v>76</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>76</v>
@@ -14305,7 +14174,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14313,7 +14182,7 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>87</v>
@@ -14328,24 +14197,26 @@
         <v>88</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
-        <v>76</v>
+        <v>501</v>
       </c>
       <c r="R105" t="s" s="2">
         <v>76</v>
@@ -14387,7 +14258,7 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14408,10 +14279,10 @@
         <v>76</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>76</v>
@@ -14422,7 +14293,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14430,7 +14301,7 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>87</v>
@@ -14445,18 +14316,18 @@
         <v>88</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>76</v>
       </c>
@@ -14465,7 +14336,7 @@
         <v>76</v>
       </c>
       <c r="R106" t="s" s="2">
-        <v>76</v>
+        <v>503</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>76</v>
@@ -14504,7 +14375,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14525,10 +14396,10 @@
         <v>76</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>76</v>
@@ -14539,7 +14410,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14547,7 +14418,7 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>87</v>
@@ -14562,17 +14433,17 @@
         <v>88</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>76</v>
@@ -14621,7 +14492,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14642,10 +14513,10 @@
         <v>76</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>76</v>
@@ -14656,7 +14527,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14679,19 +14550,17 @@
         <v>88</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>76</v>
@@ -14701,7 +14570,7 @@
         <v>76</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>76</v>
+        <v>506</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>76</v>
@@ -14740,7 +14609,7 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -14761,10 +14630,10 @@
         <v>76</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>76</v>
@@ -14775,7 +14644,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14798,19 +14667,19 @@
         <v>88</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>76</v>
@@ -14859,7 +14728,7 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -14880,10 +14749,10 @@
         <v>76</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>76</v>
@@ -14894,7 +14763,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14902,10 +14771,10 @@
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>76</v>
@@ -14914,19 +14783,23 @@
         <v>76</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>501</v>
+        <v>89</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>502</v>
+        <v>282</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>76</v>
       </c>
@@ -14974,16 +14847,16 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>500</v>
+        <v>286</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>487</v>
+        <v>76</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>99</v>
@@ -14995,10 +14868,10 @@
         <v>76</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>504</v>
+        <v>288</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>76</v>
@@ -15009,7 +14882,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15020,7 +14893,7 @@
         <v>77</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>76</v>
@@ -15029,16 +14902,16 @@
         <v>76</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>89</v>
+        <v>510</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>154</v>
+        <v>511</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>155</v>
+        <v>512</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15089,19 +14962,19 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>156</v>
+        <v>509</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>76</v>
+        <v>491</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>76</v>
@@ -15113,10 +14986,10 @@
         <v>76</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>157</v>
+        <v>470</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>76</v>
+        <v>494</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>76</v>
@@ -15124,11 +14997,11 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15147,17 +15020,15 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>133</v>
+        <v>514</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>134</v>
+        <v>515</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>76</v>
@@ -15194,19 +15065,19 @@
         <v>76</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>163</v>
+        <v>513</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -15218,2716 +15089,29 @@
         <v>76</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>76</v>
+        <v>517</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>76</v>
+        <v>518</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>157</v>
+        <v>519</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N124" s="2"/>
-      <c r="O124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M125" s="2"/>
-      <c r="N125" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F130" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P130" s="2"/>
-      <c r="Q130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N131" s="2"/>
-      <c r="O131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P131" s="2"/>
-      <c r="Q131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P132" s="2"/>
-      <c r="Q132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AO133" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P135" s="2"/>
-      <c r="Q135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO135" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO135">
+  <autoFilter ref="A1:AO112">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17937,7 +15121,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI134">
+  <conditionalFormatting sqref="A2:AI111">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-Condition-profile.xlsx
+++ b/docs/StructureDefinition-Condition-profile.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>05-Condition Profile(CISCTCAE)</t>
+    <t>Condition Profile(CISCTCAE)</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31T21:33:26+08:00</t>
+    <t>2022-08-03T14:01:00+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Example of a profile of Condition</t>
+    <t>Example of a profile of Condition(CISCTCAE)</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-Condition-profile.xlsx
+++ b/docs/StructureDefinition-Condition-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T14:01:00+08:00</t>
+    <t>2022-08-07T11:52:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Condition-profile.xlsx
+++ b/docs/StructureDefinition-Condition-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-07T11:52:30+08:00</t>
+    <t>2022-08-27T12:17:33+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Example of a profile of Condition(CISCTCAE)</t>
+    <t>Example of a profile of Condition(CISCTCAE)副作用併發症記錄表</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-Condition-profile.xlsx
+++ b/docs/StructureDefinition-Condition-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-27T12:17:33+08:00</t>
+    <t>2022-08-27T19:57:01+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Condition-profile.xlsx
+++ b/docs/StructureDefinition-Condition-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-27T19:57:01+08:00</t>
+    <t>2022-09-25T15:07:05+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Condition-profile.xlsx
+++ b/docs/StructureDefinition-Condition-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-25T15:07:05+08:00</t>
+    <t>2022-10-08T22:29:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
